--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,111 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>war</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>banks</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
@@ -178,175 +187,205 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>special</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>care</t>
+    <t>protect</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>check</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>check</t>
+    <t>year</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>staff</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>go</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -704,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -773,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,16 +833,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -815,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -841,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -865,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -873,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8082191780821918</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C6">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D6">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.8407310704960835</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L9">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.76</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6956521739130435</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.7906976744186046</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1315,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6451612903225806</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1373,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1391,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6243386243386243</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C16">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1441,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.8125</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1465,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6101694915254238</v>
+        <v>0.6243386243386243</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5897435897435898</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1541,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5736434108527132</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1591,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1615,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5641025641025641</v>
+        <v>0.5949612403100775</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1641,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1665,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5555555555555556</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L21">
         <v>16</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L21">
-        <v>35</v>
-      </c>
       <c r="M21">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5503355704697986</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1741,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1773,13 +1812,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5294117647058824</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.7</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1815,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5185185185185185</v>
+        <v>0.5369127516778524</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.6615384615384615</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,10 +1915,10 @@
         <v>0.5</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1891,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.6588235294117647</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="L25">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="M25">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1915,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1923,13 +1962,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4864864864864865</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.6382978723404256</v>
+        <v>0.6875</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1965,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +2012,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4666666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.6237288135593221</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L27">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2015,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4545454545454545</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.6234309623430963</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L28">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2065,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>90</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2073,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4545454545454545</v>
+        <v>0.48</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2091,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2115,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2123,13 +2162,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4464285714285715</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2141,19 +2180,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2165,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2173,13 +2212,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3555555555555556</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2191,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.6338983050847458</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2215,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2223,13 +2262,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3095238095238095</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C32">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2241,19 +2280,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.5686274509803921</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2265,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2273,13 +2312,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.275</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2291,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>0.550561797752809</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2315,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2323,13 +2362,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2727272727272727</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2341,19 +2380,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2365,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2373,13 +2412,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2549019607843137</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2391,31 +2430,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>0.4878048780487805</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2423,13 +2462,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2546916890080429</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C36">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2441,19 +2480,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K36">
-        <v>0.4814814814814815</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2465,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2473,13 +2512,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2321428571428572</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2491,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2515,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2523,13 +2562,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1566666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C38">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2541,19 +2580,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>0.4642857142857143</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2565,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2573,13 +2612,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.06825938566552901</v>
+        <v>0.2875</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2591,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>273</v>
+        <v>57</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K39">
-        <v>0.4545454545454545</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2615,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2623,13 +2662,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.05932203389830509</v>
+        <v>0.2627345844504022</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2641,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K40">
-        <v>0.3823529411764706</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L40">
         <v>13</v>
@@ -2665,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2673,37 +2712,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03409090909090909</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="C41">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="E41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2975</v>
+        <v>256</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>0.3770491803278688</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2715,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2723,37 +2762,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.03367875647668394</v>
+        <v>0.07849829351535836</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1119</v>
+        <v>270</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K42">
-        <v>0.3698630136986301</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2765,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2773,37 +2812,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.024</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="C43">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="F43">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2074</v>
+        <v>220</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K43">
-        <v>0.3461538461538461</v>
+        <v>0.5</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2815,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2823,49 +2862,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01744186046511628</v>
+        <v>0.03498542274052478</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="E44">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="F44">
-        <v>0.6799999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>845</v>
+        <v>2979</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K44">
-        <v>0.34375</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2873,141 +2912,213 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.008357441337190614</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D45">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="E45">
-        <v>0.78</v>
+        <v>0.09</v>
       </c>
       <c r="F45">
-        <v>0.22</v>
+        <v>0.91</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3085</v>
+        <v>1118</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>0.2413793103448276</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M45">
+        <v>34</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.02165725047080979</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>65</v>
+      </c>
+      <c r="E46">
+        <v>0.29</v>
+      </c>
+      <c r="F46">
+        <v>0.71</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2078</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>24</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.0186046511627907</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
+      <c r="E47">
+        <v>0.3</v>
+      </c>
+      <c r="F47">
+        <v>0.7</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>844</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="L47">
+        <v>34</v>
+      </c>
+      <c r="M47">
+        <v>34</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.007734450531743474</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>122</v>
+      </c>
+      <c r="E48">
+        <v>0.8</v>
+      </c>
+      <c r="F48">
+        <v>0.2</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3079</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>13</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>15</v>
-      </c>
-      <c r="N45">
-        <v>0.93</v>
-      </c>
-      <c r="O45">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K46">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="L46">
-        <v>15</v>
-      </c>
-      <c r="M46">
-        <v>15</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K47">
-        <v>0.160377358490566</v>
-      </c>
-      <c r="L47">
-        <v>17</v>
-      </c>
-      <c r="M47">
-        <v>20</v>
-      </c>
-      <c r="N47">
-        <v>0.85</v>
-      </c>
-      <c r="O47">
-        <v>0.15</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K48">
-        <v>0.1532258064516129</v>
-      </c>
-      <c r="L48">
-        <v>19</v>
-      </c>
-      <c r="M48">
-        <v>19</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K49">
-        <v>0.134020618556701</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3019,73 +3130,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K50">
-        <v>0.1056338028169014</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K51">
-        <v>0.1032608695652174</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K52">
-        <v>0.08588957055214724</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3097,21 +3208,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>149</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K53">
-        <v>0.08139534883720931</v>
+        <v>0.359375</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3123,47 +3234,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K54">
-        <v>0.07451923076923077</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>385</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K55">
-        <v>0.06574394463667819</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3175,47 +3286,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>270</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K56">
-        <v>0.05863192182410423</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>289</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K57">
-        <v>0.04871060171919771</v>
+        <v>0.1693548387096774</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3227,189 +3338,449 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>332</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K58">
-        <v>0.03943661971830986</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L58">
         <v>14</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N58">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="O58">
-        <v>0.26</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>341</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K59">
-        <v>0.03888024883359253</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N59">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>618</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="K60">
-        <v>0.02834645669291339</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L60">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="N60">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>3085</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K61">
-        <v>0.0267260579064588</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N61">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>874</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K62">
-        <v>0.02249718785151856</v>
+        <v>0.109375</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N62">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="O62">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>869</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="K63">
-        <v>0.008994003997335111</v>
+        <v>0.1006493506493507</v>
       </c>
       <c r="L63">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M63">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="N63">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>2975</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K64">
-        <v>0.008604206500956023</v>
+        <v>0.06987951807228916</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N64">
-        <v>0.26</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0.74</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>2074</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K65">
+        <v>0.06597222222222222</v>
+      </c>
+      <c r="L65">
+        <v>19</v>
+      </c>
+      <c r="M65">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>0.95</v>
+      </c>
+      <c r="O65">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K66">
+        <v>0.06017191977077364</v>
+      </c>
+      <c r="L66">
+        <v>21</v>
+      </c>
+      <c r="M66">
+        <v>21</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K67">
+        <v>0.04</v>
+      </c>
+      <c r="L67">
+        <v>13</v>
+      </c>
+      <c r="M67">
+        <v>15</v>
+      </c>
+      <c r="N67">
+        <v>0.87</v>
+      </c>
+      <c r="O67">
+        <v>0.13</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K68">
+        <v>0.03084671073339628</v>
+      </c>
+      <c r="L68">
+        <v>98</v>
+      </c>
+      <c r="M68">
+        <v>122</v>
+      </c>
+      <c r="N68">
+        <v>0.8</v>
+      </c>
+      <c r="O68">
+        <v>0.2</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K69">
+        <v>0.02696629213483146</v>
+      </c>
+      <c r="L69">
+        <v>24</v>
+      </c>
+      <c r="M69">
+        <v>28</v>
+      </c>
+      <c r="N69">
+        <v>0.86</v>
+      </c>
+      <c r="O69">
+        <v>0.14</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K70">
+        <v>0.0244173140954495</v>
+      </c>
+      <c r="L70">
+        <v>22</v>
+      </c>
+      <c r="M70">
+        <v>22</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71">
+        <v>0.02351097178683386</v>
+      </c>
+      <c r="L71">
+        <v>15</v>
+      </c>
+      <c r="M71">
+        <v>27</v>
+      </c>
+      <c r="N71">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O71">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K72">
+        <v>0.02085505735140772</v>
+      </c>
+      <c r="L72">
+        <v>20</v>
+      </c>
+      <c r="M72">
+        <v>29</v>
+      </c>
+      <c r="N72">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O72">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K73">
+        <v>0.009060562708631379</v>
+      </c>
+      <c r="L73">
+        <v>19</v>
+      </c>
+      <c r="M73">
+        <v>65</v>
+      </c>
+      <c r="N73">
+        <v>0.29</v>
+      </c>
+      <c r="O73">
+        <v>0.71</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74">
+        <v>0.006668889629876626</v>
+      </c>
+      <c r="L74">
+        <v>20</v>
+      </c>
+      <c r="M74">
+        <v>128</v>
+      </c>
+      <c r="N74">
+        <v>0.16</v>
+      </c>
+      <c r="O74">
+        <v>0.84</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2979</v>
       </c>
     </row>
   </sheetData>
